--- a/Talenox Payments.xlsx
+++ b/Talenox Payments.xlsx
@@ -10,7 +10,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -375,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -414,7 +415,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E2">
-        <v>431</v>
+        <v>344</v>
       </c>
       <c r="F2" t="str">
         <v>Product commission</v>
@@ -454,7 +455,7 @@
         <v>Tips</v>
       </c>
       <c r="E4">
-        <v>500</v>
+        <v>220</v>
       </c>
       <c r="F4" t="str">
         <v>Tips</v>
@@ -474,7 +475,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E5">
-        <v>541</v>
+        <v>689.5</v>
       </c>
       <c r="F5" t="str">
         <v>Product commission</v>
@@ -494,7 +495,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E6">
-        <v>38279.25</v>
+        <v>41332.5</v>
       </c>
       <c r="F6" t="str">
         <v>Services commission</v>
@@ -514,7 +515,7 @@
         <v>Tips</v>
       </c>
       <c r="E7">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F7" t="str">
         <v>Tips</v>
@@ -534,7 +535,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E8">
-        <v>201.5</v>
+        <v>86</v>
       </c>
       <c r="F8" t="str">
         <v>Product commission</v>
@@ -554,7 +555,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E9">
-        <v>1592</v>
+        <v>1862.2</v>
       </c>
       <c r="F9" t="str">
         <v>Services commission</v>
@@ -562,19 +563,19 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>'015</v>
+        <v>'021</v>
       </c>
       <c r="B10" t="str">
-        <v>Mandy</v>
+        <v>Wing</v>
       </c>
       <c r="C10" t="str">
-        <v>Cheung</v>
+        <v>Cheng</v>
       </c>
       <c r="D10" t="str">
         <v>Tips</v>
       </c>
       <c r="E10">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="F10" t="str">
         <v>Tips</v>
@@ -582,19 +583,19 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>'015</v>
+        <v>'021</v>
       </c>
       <c r="B11" t="str">
-        <v>Mandy</v>
+        <v>Wing</v>
       </c>
       <c r="C11" t="str">
-        <v>Cheung</v>
+        <v>Cheng</v>
       </c>
       <c r="D11" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E11">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="F11" t="str">
         <v>Product commission</v>
@@ -602,19 +603,19 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>'015</v>
+        <v>'021</v>
       </c>
       <c r="B12" t="str">
-        <v>Mandy</v>
+        <v>Wing</v>
       </c>
       <c r="C12" t="str">
-        <v>Cheung</v>
+        <v>Cheng</v>
       </c>
       <c r="D12" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E12">
-        <v>139.5</v>
+        <v>62.5</v>
       </c>
       <c r="F12" t="str">
         <v>Services commission</v>
@@ -622,19 +623,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>'018</v>
+        <v>'015</v>
       </c>
       <c r="B13" t="str">
-        <v>Rennie</v>
+        <v>Mandy</v>
       </c>
       <c r="C13" t="str">
-        <v>Fensham</v>
+        <v>Cheung</v>
       </c>
       <c r="D13" t="str">
         <v>Tips</v>
       </c>
       <c r="E13">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="F13" t="str">
         <v>Tips</v>
@@ -642,19 +643,19 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>'018</v>
+        <v>'015</v>
       </c>
       <c r="B14" t="str">
-        <v>Rennie</v>
+        <v>Mandy</v>
       </c>
       <c r="C14" t="str">
-        <v>Fensham</v>
+        <v>Cheung</v>
       </c>
       <c r="D14" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E14">
-        <v>622</v>
+        <v>78</v>
       </c>
       <c r="F14" t="str">
         <v>Product commission</v>
@@ -662,19 +663,19 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>'018</v>
+        <v>'015</v>
       </c>
       <c r="B15" t="str">
-        <v>Rennie</v>
+        <v>Mandy</v>
       </c>
       <c r="C15" t="str">
-        <v>Fensham</v>
+        <v>Cheung</v>
       </c>
       <c r="D15" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E15">
-        <v>22810</v>
+        <v>0</v>
       </c>
       <c r="F15" t="str">
         <v>Services commission</v>
@@ -682,19 +683,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>'020</v>
+        <v>'018</v>
       </c>
       <c r="B16" t="str">
-        <v>Sam</v>
+        <v>Rennie</v>
       </c>
       <c r="C16" t="str">
-        <v>Fong</v>
+        <v>Fensham</v>
       </c>
       <c r="D16" t="str">
         <v>Tips</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>580</v>
       </c>
       <c r="F16" t="str">
         <v>Tips</v>
@@ -702,19 +703,19 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>'020</v>
+        <v>'018</v>
       </c>
       <c r="B17" t="str">
-        <v>Sam</v>
+        <v>Rennie</v>
       </c>
       <c r="C17" t="str">
-        <v>Fong</v>
+        <v>Fensham</v>
       </c>
       <c r="D17" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E17">
-        <v>261</v>
+        <v>473.5</v>
       </c>
       <c r="F17" t="str">
         <v>Product commission</v>
@@ -722,19 +723,19 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>'020</v>
+        <v>'018</v>
       </c>
       <c r="B18" t="str">
-        <v>Sam</v>
+        <v>Rennie</v>
       </c>
       <c r="C18" t="str">
-        <v>Fong</v>
+        <v>Fensham</v>
       </c>
       <c r="D18" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E18">
-        <v>13584.800000000001</v>
+        <v>57401</v>
       </c>
       <c r="F18" t="str">
         <v>Services commission</v>
@@ -742,13 +743,13 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>'001</v>
+        <v>'020</v>
       </c>
       <c r="B19" t="str">
-        <v>Sioban</v>
+        <v>Sam</v>
       </c>
       <c r="C19" t="str">
-        <v>Guilfoyle</v>
+        <v>Fong</v>
       </c>
       <c r="D19" t="str">
         <v>Tips</v>
@@ -762,19 +763,19 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>'001</v>
+        <v>'020</v>
       </c>
       <c r="B20" t="str">
-        <v>Sioban</v>
+        <v>Sam</v>
       </c>
       <c r="C20" t="str">
-        <v>Guilfoyle</v>
+        <v>Fong</v>
       </c>
       <c r="D20" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E20">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="F20" t="str">
         <v>Product commission</v>
@@ -782,19 +783,19 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>'001</v>
+        <v>'020</v>
       </c>
       <c r="B21" t="str">
-        <v>Sioban</v>
+        <v>Sam</v>
       </c>
       <c r="C21" t="str">
-        <v>Guilfoyle</v>
+        <v>Fong</v>
       </c>
       <c r="D21" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>12225.2</v>
       </c>
       <c r="F21" t="str">
         <v>Services commission</v>
@@ -802,19 +803,19 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>'006</v>
+        <v>'001</v>
       </c>
       <c r="B22" t="str">
-        <v>Anson</v>
+        <v>Sioban</v>
       </c>
       <c r="C22" t="str">
-        <v>Ho</v>
+        <v>Guilfoyle</v>
       </c>
       <c r="D22" t="str">
         <v>Tips</v>
       </c>
       <c r="E22">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F22" t="str">
         <v>Tips</v>
@@ -822,19 +823,19 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>'006</v>
+        <v>'001</v>
       </c>
       <c r="B23" t="str">
-        <v>Anson</v>
+        <v>Sioban</v>
       </c>
       <c r="C23" t="str">
-        <v>Ho</v>
+        <v>Guilfoyle</v>
       </c>
       <c r="D23" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E23">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="F23" t="str">
         <v>Product commission</v>
@@ -842,19 +843,19 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>'006</v>
+        <v>'001</v>
       </c>
       <c r="B24" t="str">
-        <v>Anson</v>
+        <v>Sioban</v>
       </c>
       <c r="C24" t="str">
-        <v>Ho</v>
+        <v>Guilfoyle</v>
       </c>
       <c r="D24" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E24">
-        <v>10802.570000000002</v>
+        <v>0</v>
       </c>
       <c r="F24" t="str">
         <v>Services commission</v>
@@ -862,10 +863,10 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>'024</v>
+        <v>'006</v>
       </c>
       <c r="B25" t="str">
-        <v>Ava</v>
+        <v>Anson</v>
       </c>
       <c r="C25" t="str">
         <v>Ho</v>
@@ -874,7 +875,7 @@
         <v>Tips</v>
       </c>
       <c r="E25">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="F25" t="str">
         <v>Tips</v>
@@ -882,10 +883,10 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>'024</v>
+        <v>'006</v>
       </c>
       <c r="B26" t="str">
-        <v>Ava</v>
+        <v>Anson</v>
       </c>
       <c r="C26" t="str">
         <v>Ho</v>
@@ -894,7 +895,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E26">
-        <v>243</v>
+        <v>797</v>
       </c>
       <c r="F26" t="str">
         <v>Product commission</v>
@@ -902,10 +903,10 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>'024</v>
+        <v>'006</v>
       </c>
       <c r="B27" t="str">
-        <v>Ava</v>
+        <v>Anson</v>
       </c>
       <c r="C27" t="str">
         <v>Ho</v>
@@ -914,7 +915,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E27">
-        <v>43146</v>
+        <v>12523.85</v>
       </c>
       <c r="F27" t="str">
         <v>Services commission</v>
@@ -922,19 +923,19 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>'033</v>
+        <v>'024</v>
       </c>
       <c r="B28" t="str">
-        <v>Tamara</v>
+        <v>Ava</v>
       </c>
       <c r="C28" t="str">
-        <v>Hockley</v>
+        <v>Ho</v>
       </c>
       <c r="D28" t="str">
         <v>Tips</v>
       </c>
       <c r="E28">
-        <v>140</v>
+        <v>300</v>
       </c>
       <c r="F28" t="str">
         <v>Tips</v>
@@ -942,19 +943,19 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>'033</v>
+        <v>'024</v>
       </c>
       <c r="B29" t="str">
-        <v>Tamara</v>
+        <v>Ava</v>
       </c>
       <c r="C29" t="str">
-        <v>Hockley</v>
+        <v>Ho</v>
       </c>
       <c r="D29" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E29">
-        <v>245</v>
+        <v>102.5</v>
       </c>
       <c r="F29" t="str">
         <v>Product commission</v>
@@ -962,19 +963,19 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>'033</v>
+        <v>'024</v>
       </c>
       <c r="B30" t="str">
-        <v>Tamara</v>
+        <v>Ava</v>
       </c>
       <c r="C30" t="str">
-        <v>Hockley</v>
+        <v>Ho</v>
       </c>
       <c r="D30" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>27332</v>
       </c>
       <c r="F30" t="str">
         <v>Services commission</v>
@@ -982,19 +983,19 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>'036</v>
+        <v>'033</v>
       </c>
       <c r="B31" t="str">
-        <v>Kay</v>
+        <v>Tamara</v>
       </c>
       <c r="C31" t="str">
-        <v>Law</v>
+        <v>Hockley</v>
       </c>
       <c r="D31" t="str">
         <v>Tips</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="F31" t="str">
         <v>Tips</v>
@@ -1002,19 +1003,19 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>'036</v>
+        <v>'033</v>
       </c>
       <c r="B32" t="str">
-        <v>Kay</v>
+        <v>Tamara</v>
       </c>
       <c r="C32" t="str">
-        <v>Law</v>
+        <v>Hockley</v>
       </c>
       <c r="D32" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E32">
-        <v>964</v>
+        <v>721</v>
       </c>
       <c r="F32" t="str">
         <v>Product commission</v>
@@ -1022,19 +1023,19 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>'036</v>
+        <v>'033</v>
       </c>
       <c r="B33" t="str">
-        <v>Kay</v>
+        <v>Tamara</v>
       </c>
       <c r="C33" t="str">
-        <v>Law</v>
+        <v>Hockley</v>
       </c>
       <c r="D33" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>3138.5200000000004</v>
       </c>
       <c r="F33" t="str">
         <v>Services commission</v>
@@ -1042,13 +1043,13 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>'003</v>
+        <v>'036</v>
       </c>
       <c r="B34" t="str">
-        <v>Candy</v>
+        <v>Kay</v>
       </c>
       <c r="C34" t="str">
-        <v>Lee</v>
+        <v>Law</v>
       </c>
       <c r="D34" t="str">
         <v>Tips</v>
@@ -1062,19 +1063,19 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>'003</v>
+        <v>'036</v>
       </c>
       <c r="B35" t="str">
-        <v>Candy</v>
+        <v>Kay</v>
       </c>
       <c r="C35" t="str">
-        <v>Lee</v>
+        <v>Law</v>
       </c>
       <c r="D35" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E35">
-        <v>25</v>
+        <v>563.5</v>
       </c>
       <c r="F35" t="str">
         <v>Product commission</v>
@@ -1082,19 +1083,19 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>'003</v>
+        <v>'036</v>
       </c>
       <c r="B36" t="str">
-        <v>Candy</v>
+        <v>Kay</v>
       </c>
       <c r="C36" t="str">
-        <v>Lee</v>
+        <v>Law</v>
       </c>
       <c r="D36" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E36">
-        <v>13687.127600000002</v>
+        <v>0</v>
       </c>
       <c r="F36" t="str">
         <v>Services commission</v>
@@ -1102,10 +1103,10 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>'032</v>
+        <v>'003</v>
       </c>
       <c r="B37" t="str">
-        <v>Coey</v>
+        <v>Candy</v>
       </c>
       <c r="C37" t="str">
         <v>Lee</v>
@@ -1114,7 +1115,7 @@
         <v>Tips</v>
       </c>
       <c r="E37">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F37" t="str">
         <v>Tips</v>
@@ -1122,10 +1123,10 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>'032</v>
+        <v>'003</v>
       </c>
       <c r="B38" t="str">
-        <v>Coey</v>
+        <v>Candy</v>
       </c>
       <c r="C38" t="str">
         <v>Lee</v>
@@ -1134,7 +1135,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E38">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F38" t="str">
         <v>Product commission</v>
@@ -1142,10 +1143,10 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>'032</v>
+        <v>'003</v>
       </c>
       <c r="B39" t="str">
-        <v>Coey</v>
+        <v>Candy</v>
       </c>
       <c r="C39" t="str">
         <v>Lee</v>
@@ -1154,7 +1155,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>16924.704800000003</v>
       </c>
       <c r="F39" t="str">
         <v>Services commission</v>
@@ -1194,7 +1195,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E41">
-        <v>174</v>
+        <v>554.5</v>
       </c>
       <c r="F41" t="str">
         <v>Product commission</v>
@@ -1234,7 +1235,7 @@
         <v>Tips</v>
       </c>
       <c r="E43">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F43" t="str">
         <v>Tips</v>
@@ -1254,7 +1255,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E44">
-        <v>214</v>
+        <v>163.5</v>
       </c>
       <c r="F44" t="str">
         <v>Product commission</v>
@@ -1314,7 +1315,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E47">
-        <v>708</v>
+        <v>729</v>
       </c>
       <c r="F47" t="str">
         <v>Product commission</v>
@@ -1334,7 +1335,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E48">
-        <v>21380</v>
+        <v>23810</v>
       </c>
       <c r="F48" t="str">
         <v>Services commission</v>
@@ -1374,7 +1375,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E50">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F50" t="str">
         <v>Product commission</v>
@@ -1394,7 +1395,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E51">
-        <v>54150</v>
+        <v>0</v>
       </c>
       <c r="F51" t="str">
         <v>Services commission</v>
@@ -1414,7 +1415,7 @@
         <v>Tips</v>
       </c>
       <c r="E52">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F52" t="str">
         <v>Tips</v>
@@ -1434,7 +1435,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E53">
-        <v>207</v>
+        <v>251</v>
       </c>
       <c r="F53" t="str">
         <v>Product commission</v>
@@ -1454,7 +1455,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E54">
-        <v>45320</v>
+        <v>16474.00000001</v>
       </c>
       <c r="F54" t="str">
         <v>Services commission</v>
@@ -1554,7 +1555,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E59">
-        <v>20</v>
+        <v>128</v>
       </c>
       <c r="F59" t="str">
         <v>Product commission</v>
@@ -1574,7 +1575,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E60">
-        <v>6300</v>
+        <v>5240</v>
       </c>
       <c r="F60" t="str">
         <v>Services commission</v>
@@ -1582,19 +1583,19 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>'016</v>
+        <v>'028</v>
       </c>
       <c r="B61" t="str">
-        <v>Marriane</v>
+        <v>Cynthia</v>
       </c>
       <c r="C61" t="str">
-        <v>Nogueras</v>
+        <v>Sarpomaa</v>
       </c>
       <c r="D61" t="str">
         <v>Tips</v>
       </c>
       <c r="E61">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F61" t="str">
         <v>Tips</v>
@@ -1602,13 +1603,13 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>'016</v>
+        <v>'028</v>
       </c>
       <c r="B62" t="str">
-        <v>Marriane</v>
+        <v>Cynthia</v>
       </c>
       <c r="C62" t="str">
-        <v>Nogueras</v>
+        <v>Sarpomaa</v>
       </c>
       <c r="D62" t="str">
         <v>Commission (Irregular)</v>
@@ -1622,19 +1623,19 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>'016</v>
+        <v>'028</v>
       </c>
       <c r="B63" t="str">
-        <v>Marriane</v>
+        <v>Cynthia</v>
       </c>
       <c r="C63" t="str">
-        <v>Nogueras</v>
+        <v>Sarpomaa</v>
       </c>
       <c r="D63" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>17300</v>
       </c>
       <c r="F63" t="str">
         <v>Services commission</v>
@@ -1642,19 +1643,19 @@
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>'028</v>
+        <v>'022</v>
       </c>
       <c r="B64" t="str">
-        <v>Cynthia</v>
+        <v>Yentl</v>
       </c>
       <c r="C64" t="str">
-        <v>Sarpomaa</v>
+        <v>Snyman</v>
       </c>
       <c r="D64" t="str">
         <v>Tips</v>
       </c>
       <c r="E64">
-        <v>156</v>
+        <v>400</v>
       </c>
       <c r="F64" t="str">
         <v>Tips</v>
@@ -1662,19 +1663,19 @@
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>'028</v>
+        <v>'022</v>
       </c>
       <c r="B65" t="str">
-        <v>Cynthia</v>
+        <v>Yentl</v>
       </c>
       <c r="C65" t="str">
-        <v>Sarpomaa</v>
+        <v>Snyman</v>
       </c>
       <c r="D65" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E65">
-        <v>147.6</v>
+        <v>437</v>
       </c>
       <c r="F65" t="str">
         <v>Product commission</v>
@@ -1682,19 +1683,19 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>'028</v>
+        <v>'022</v>
       </c>
       <c r="B66" t="str">
-        <v>Cynthia</v>
+        <v>Yentl</v>
       </c>
       <c r="C66" t="str">
-        <v>Sarpomaa</v>
+        <v>Snyman</v>
       </c>
       <c r="D66" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E66">
-        <v>21740</v>
+        <v>23711</v>
       </c>
       <c r="F66" t="str">
         <v>Services commission</v>
@@ -1702,19 +1703,19 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>'022</v>
+        <v>'017</v>
       </c>
       <c r="B67" t="str">
-        <v>Yentl</v>
+        <v>Melody</v>
       </c>
       <c r="C67" t="str">
-        <v>Snyman</v>
+        <v>Spoerri</v>
       </c>
       <c r="D67" t="str">
         <v>Tips</v>
       </c>
       <c r="E67">
-        <v>470</v>
+        <v>100</v>
       </c>
       <c r="F67" t="str">
         <v>Tips</v>
@@ -1722,19 +1723,19 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>'022</v>
+        <v>'017</v>
       </c>
       <c r="B68" t="str">
-        <v>Yentl</v>
+        <v>Melody</v>
       </c>
       <c r="C68" t="str">
-        <v>Snyman</v>
+        <v>Spoerri</v>
       </c>
       <c r="D68" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E68">
-        <v>1003</v>
+        <v>0</v>
       </c>
       <c r="F68" t="str">
         <v>Product commission</v>
@@ -1742,19 +1743,19 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>'022</v>
+        <v>'017</v>
       </c>
       <c r="B69" t="str">
-        <v>Yentl</v>
+        <v>Melody</v>
       </c>
       <c r="C69" t="str">
-        <v>Snyman</v>
+        <v>Spoerri</v>
       </c>
       <c r="D69" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E69">
-        <v>27643.5</v>
+        <v>0</v>
       </c>
       <c r="F69" t="str">
         <v>Services commission</v>
@@ -1762,19 +1763,19 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>'017</v>
+        <v>'004</v>
       </c>
       <c r="B70" t="str">
-        <v>Melody</v>
+        <v>Jay</v>
       </c>
       <c r="C70" t="str">
-        <v>Spoerri</v>
+        <v>Tsui</v>
       </c>
       <c r="D70" t="str">
         <v>Tips</v>
       </c>
       <c r="E70">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F70" t="str">
         <v>Tips</v>
@@ -1782,19 +1783,19 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>'017</v>
+        <v>'004</v>
       </c>
       <c r="B71" t="str">
-        <v>Melody</v>
+        <v>Jay</v>
       </c>
       <c r="C71" t="str">
-        <v>Spoerri</v>
+        <v>Tsui</v>
       </c>
       <c r="D71" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E71">
-        <v>421</v>
+        <v>457.8</v>
       </c>
       <c r="F71" t="str">
         <v>Product commission</v>
@@ -1802,19 +1803,19 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>'017</v>
+        <v>'004</v>
       </c>
       <c r="B72" t="str">
-        <v>Melody</v>
+        <v>Jay</v>
       </c>
       <c r="C72" t="str">
-        <v>Spoerri</v>
+        <v>Tsui</v>
       </c>
       <c r="D72" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>9409.108</v>
       </c>
       <c r="F72" t="str">
         <v>Services commission</v>
@@ -1822,19 +1823,19 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>'004</v>
+        <v>'023</v>
       </c>
       <c r="B73" t="str">
-        <v>Jay</v>
+        <v>Keith</v>
       </c>
       <c r="C73" t="str">
-        <v>Tsui</v>
+        <v>Wilson</v>
       </c>
       <c r="D73" t="str">
         <v>Tips</v>
       </c>
       <c r="E73">
-        <v>100</v>
+        <v>1150</v>
       </c>
       <c r="F73" t="str">
         <v>Tips</v>
@@ -1842,19 +1843,19 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>'004</v>
+        <v>'023</v>
       </c>
       <c r="B74" t="str">
-        <v>Jay</v>
+        <v>Keith</v>
       </c>
       <c r="C74" t="str">
-        <v>Tsui</v>
+        <v>Wilson</v>
       </c>
       <c r="D74" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E74">
-        <v>315.5</v>
+        <v>116</v>
       </c>
       <c r="F74" t="str">
         <v>Product commission</v>
@@ -1862,19 +1863,19 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>'004</v>
+        <v>'023</v>
       </c>
       <c r="B75" t="str">
-        <v>Jay</v>
+        <v>Keith</v>
       </c>
       <c r="C75" t="str">
-        <v>Tsui</v>
+        <v>Wilson</v>
       </c>
       <c r="D75" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E75">
-        <v>3422.7079000000017</v>
+        <v>46488</v>
       </c>
       <c r="F75" t="str">
         <v>Services commission</v>
@@ -1882,19 +1883,19 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>'023</v>
+        <v>'007</v>
       </c>
       <c r="B76" t="str">
-        <v>Keith</v>
+        <v>Ari</v>
       </c>
       <c r="C76" t="str">
-        <v>Wilson</v>
+        <v>Wong</v>
       </c>
       <c r="D76" t="str">
         <v>Tips</v>
       </c>
       <c r="E76">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="F76" t="str">
         <v>Tips</v>
@@ -1902,19 +1903,19 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>'023</v>
+        <v>'007</v>
       </c>
       <c r="B77" t="str">
-        <v>Keith</v>
+        <v>Ari</v>
       </c>
       <c r="C77" t="str">
-        <v>Wilson</v>
+        <v>Wong</v>
       </c>
       <c r="D77" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E77">
-        <v>160</v>
+        <v>1439</v>
       </c>
       <c r="F77" t="str">
         <v>Product commission</v>
@@ -1922,19 +1923,19 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>'023</v>
+        <v>'007</v>
       </c>
       <c r="B78" t="str">
-        <v>Keith</v>
+        <v>Ari</v>
       </c>
       <c r="C78" t="str">
-        <v>Wilson</v>
+        <v>Wong</v>
       </c>
       <c r="D78" t="str">
         <v>Commission (Irregular)</v>
       </c>
       <c r="E78">
-        <v>36906</v>
+        <v>17076.2</v>
       </c>
       <c r="F78" t="str">
         <v>Services commission</v>
@@ -1942,10 +1943,10 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>'007</v>
+        <v>'019</v>
       </c>
       <c r="B79" t="str">
-        <v>Ari</v>
+        <v>Rex</v>
       </c>
       <c r="C79" t="str">
         <v>Wong</v>
@@ -1954,7 +1955,7 @@
         <v>Tips</v>
       </c>
       <c r="E79">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F79" t="str">
         <v>Tips</v>
@@ -1962,10 +1963,10 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>'007</v>
+        <v>'019</v>
       </c>
       <c r="B80" t="str">
-        <v>Ari</v>
+        <v>Rex</v>
       </c>
       <c r="C80" t="str">
         <v>Wong</v>
@@ -1974,7 +1975,7 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E80">
-        <v>387</v>
+        <v>310</v>
       </c>
       <c r="F80" t="str">
         <v>Product commission</v>
@@ -1982,10 +1983,10 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>'007</v>
+        <v>'019</v>
       </c>
       <c r="B81" t="str">
-        <v>Ari</v>
+        <v>Rex</v>
       </c>
       <c r="C81" t="str">
         <v>Wong</v>
@@ -1994,75 +1995,15 @@
         <v>Commission (Irregular)</v>
       </c>
       <c r="E81">
-        <v>10948.1</v>
+        <v>21284.8</v>
       </c>
       <c r="F81" t="str">
-        <v>Services commission</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="str">
-        <v>'019</v>
-      </c>
-      <c r="B82" t="str">
-        <v>Rex</v>
-      </c>
-      <c r="C82" t="str">
-        <v>Wong</v>
-      </c>
-      <c r="D82" t="str">
-        <v>Tips</v>
-      </c>
-      <c r="E82">
-        <v>250</v>
-      </c>
-      <c r="F82" t="str">
-        <v>Tips</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="str">
-        <v>'019</v>
-      </c>
-      <c r="B83" t="str">
-        <v>Rex</v>
-      </c>
-      <c r="C83" t="str">
-        <v>Wong</v>
-      </c>
-      <c r="D83" t="str">
-        <v>Commission (Irregular)</v>
-      </c>
-      <c r="E83">
-        <v>452</v>
-      </c>
-      <c r="F83" t="str">
-        <v>Product commission</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="str">
-        <v>'019</v>
-      </c>
-      <c r="B84" t="str">
-        <v>Rex</v>
-      </c>
-      <c r="C84" t="str">
-        <v>Wong</v>
-      </c>
-      <c r="D84" t="str">
-        <v>Commission (Irregular)</v>
-      </c>
-      <c r="E84">
-        <v>17987</v>
-      </c>
-      <c r="F84" t="str">
         <v>Services commission</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F84"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F81"/>
   </ignoredErrors>
 </worksheet>
 </file>